--- a/excelTask3/Data/dataTable.xlsx
+++ b/excelTask3/Data/dataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Товары"/>
@@ -171,7 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -249,13 +249,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -266,11 +269,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -579,290 +582,290 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="20" width="22.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>375</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="9">
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>922</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="9">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>929</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="9">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>210</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="9">
         <v>75.14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>404</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="9">
         <v>120</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5">
         <v>517</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="9">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>963</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="9">
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
         <v>853</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="9">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
         <v>232</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="9">
         <v>130</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
         <v>372</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="9">
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
         <v>415</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="9">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
         <v>303</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="9">
         <v>400</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5">
         <v>778</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="9">
         <v>300</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5">
         <v>516</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="9">
         <v>100</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>181</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="9">
         <v>500</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5">
         <v>832</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="9">
         <v>105</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5">
         <v>855</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="9">
         <v>110</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5">
         <v>840</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="9">
         <v>150</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
       <c r="A20" s="5">
         <v>104</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="9">
@@ -886,22 +889,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="14" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="14" width="55.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="35.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="55.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="40.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -909,13 +912,13 @@
       <c r="A2" s="5">
         <v>287</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -923,13 +926,13 @@
       <c r="A3" s="5">
         <v>820</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
@@ -937,13 +940,13 @@
       <c r="A4" s="5">
         <v>748</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>17</v>
       </c>
     </row>
@@ -951,105 +954,105 @@
       <c r="A5" s="5">
         <v>633</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="8"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="8"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="8"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="8"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="8"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="8"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="8"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="8"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="8"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="8"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="8"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="8"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="8"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="8"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1063,20 +1066,20 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="11" width="13.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="13" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="13" width="23.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="14" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">

--- a/excelTask3/Data/dataTable.xlsx
+++ b/excelTask3/Data/dataTable.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackupsAndOther\coding\c#\excel\excelTask3\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B511B9C-008A-4CDB-BA37-1E07F9EFB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Товары"/>
-    <sheet r:id="rId2" sheetId="2" name="Клиенты"/>
-    <sheet r:id="rId3" sheetId="3" name="Заявки"/>
+    <sheet name="Товары" sheetId="1" r:id="rId1"/>
+    <sheet name="Клиенты" sheetId="2" r:id="rId2"/>
+    <sheet name="Заявки" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Код заявки</t>
   </si>
@@ -154,13 +160,15 @@
   </si>
   <si>
     <t>Вафли</t>
+  </si>
+  <si>
+    <t>Пустой</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,11 +193,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -212,81 +220,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -297,10 +350,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -338,71 +391,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,7 +483,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -453,11 +506,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -466,13 +519,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -482,7 +535,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -491,7 +544,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -500,7 +553,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -508,10 +561,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -576,7 +629,325 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>375</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>922</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>929</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>210</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9">
+        <v>75.14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>404</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>517</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>963</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>853</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>232</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>372</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>415</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>303</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>778</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>516</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>181</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>832</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>855</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>840</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
+        <v>104</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="23">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>1</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -586,315 +957,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="20" width="22.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.7109375" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5">
-        <v>375</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="9">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="5">
-        <v>922</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="5">
-        <v>929</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="5">
-        <v>210</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9">
-        <v>75.14</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="5">
-        <v>404</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="5">
-        <v>517</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="9">
-        <v>150</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="5">
-        <v>963</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="9">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5">
-        <v>853</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5">
-        <v>232</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="9">
-        <v>130</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5">
-        <v>372</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5">
-        <v>415</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="9">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="5">
-        <v>303</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="9">
-        <v>400</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="5">
-        <v>778</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="9">
-        <v>300</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="5">
-        <v>516</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="9">
-        <v>100</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="5">
-        <v>181</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="9">
-        <v>500</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="5">
-        <v>832</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="9">
-        <v>105</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
-      <c r="A18" s="5">
-        <v>855</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="9">
-        <v>110</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
-      <c r="A19" s="5">
-        <v>840</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="9">
-        <v>150</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="20.25">
-      <c r="A20" s="5">
-        <v>104</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="9">
-        <v>130</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="35.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="55.29071428571429" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="40.71928571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -908,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>287</v>
       </c>
@@ -922,7 +991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>820</v>
       </c>
@@ -936,7 +1005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>748</v>
       </c>
@@ -950,7 +1019,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>633</v>
       </c>
@@ -964,91 +1033,91 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="17"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17"/>
       <c r="D9" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1060,29 +1129,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="14.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="23.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="14" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5703125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +1172,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>104</v>
       </c>
@@ -1130,7 +1196,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>105</v>
       </c>
@@ -1154,7 +1220,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>107</v>
       </c>
@@ -1178,7 +1244,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>108</v>
       </c>
@@ -1202,7 +1268,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>106</v>
       </c>
@@ -1226,7 +1292,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>110</v>
       </c>
@@ -1250,7 +1316,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>111</v>
       </c>
@@ -1274,7 +1340,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>109</v>
       </c>
@@ -1298,19 +1364,31 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="7"/>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>210</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>45338</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1322,7 +1400,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1334,7 +1412,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -1346,7 +1424,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -1358,7 +1436,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1370,7 +1448,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1382,7 +1460,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1394,7 +1472,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -1406,7 +1484,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1418,7 +1496,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>

--- a/excelTask3/Data/dataTable.xlsx
+++ b/excelTask3/Data/dataTable.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
-    <x:workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" firstSheet="0" activeTab="1"/>
+    <x:workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" firstSheet="0" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Товары" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
     <x:t>Какой-то там адресс</x:t>
   </x:si>
   <x:si>
-    <x:t>пипипапа</x:t>
+    <x:t>Тестик тестикович</x:t>
   </x:si>
   <x:si>
     <x:t>Код заявки</x:t>
@@ -273,6 +273,9 @@
     <x:xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left"/>
     </x:xf>
+    <x:xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left"/>
+    </x:xf>
     <x:xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left"/>
     </x:xf>
@@ -303,7 +306,7 @@
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment horizontal="left"/>
     </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment horizontal="right"/>
     </x:xf>
     <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -324,10 +327,7 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment horizontal="left"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment horizontal="right"/>
     </x:xf>
     <x:xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -657,10 +657,10 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.719286" style="12" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="35.576429" style="18" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="14.147857" style="18" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="22.576429" style="20" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="11.719286" style="20" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="35.576429" style="19" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="14.147857" style="19" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="22.576429" style="13" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,268 +678,268 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="5">
+      <x:c r="A2" s="6">
         <x:v>375</x:v>
       </x:c>
-      <x:c r="B2" s="17" t="s">
+      <x:c r="B2" s="18" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="C2" s="17" t="s">
+      <x:c r="C2" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D2" s="9">
+      <x:c r="D2" s="10">
         <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="5">
+      <x:c r="A3" s="6">
         <x:v>922</x:v>
       </x:c>
-      <x:c r="B3" s="17" t="s">
+      <x:c r="B3" s="18" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C3" s="17" t="s">
+      <x:c r="C3" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D3" s="9">
+      <x:c r="D3" s="10">
         <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="5">
+      <x:c r="A4" s="6">
         <x:v>929</x:v>
       </x:c>
-      <x:c r="B4" s="17" t="s">
+      <x:c r="B4" s="18" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C4" s="17" t="s">
+      <x:c r="C4" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D4" s="9">
+      <x:c r="D4" s="10">
         <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="5">
+      <x:c r="A5" s="6">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="B5" s="17" t="s">
+      <x:c r="B5" s="18" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="C5" s="17" t="s">
+      <x:c r="C5" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D5" s="9">
+      <x:c r="D5" s="10">
         <x:v>75.14</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="5">
+      <x:c r="A6" s="6">
         <x:v>404</x:v>
       </x:c>
-      <x:c r="B6" s="17" t="s">
+      <x:c r="B6" s="18" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C6" s="17" t="s">
+      <x:c r="C6" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D6" s="9">
+      <x:c r="D6" s="10">
         <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="5">
+      <x:c r="A7" s="6">
         <x:v>517</x:v>
       </x:c>
-      <x:c r="B7" s="17" t="s">
+      <x:c r="B7" s="18" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="17" t="s">
+      <x:c r="C7" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D7" s="9">
+      <x:c r="D7" s="10">
         <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="5">
+      <x:c r="A8" s="6">
         <x:v>963</x:v>
       </x:c>
-      <x:c r="B8" s="17" t="s">
+      <x:c r="B8" s="18" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="C8" s="17" t="s">
+      <x:c r="C8" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D8" s="9">
+      <x:c r="D8" s="10">
         <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="5">
+      <x:c r="A9" s="6">
         <x:v>853</x:v>
       </x:c>
-      <x:c r="B9" s="17" t="s">
+      <x:c r="B9" s="18" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C9" s="17" t="s">
+      <x:c r="C9" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D9" s="9">
+      <x:c r="D9" s="10">
         <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="5">
+      <x:c r="A10" s="6">
         <x:v>232</x:v>
       </x:c>
-      <x:c r="B10" s="17" t="s">
+      <x:c r="B10" s="18" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C10" s="17" t="s">
+      <x:c r="C10" s="18" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D10" s="9">
+      <x:c r="D10" s="10">
         <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="5">
+      <x:c r="A11" s="6">
         <x:v>372</x:v>
       </x:c>
-      <x:c r="B11" s="17" t="s">
+      <x:c r="B11" s="18" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="C11" s="17" t="s">
+      <x:c r="C11" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D11" s="9">
+      <x:c r="D11" s="10">
         <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="5">
+      <x:c r="A12" s="6">
         <x:v>415</x:v>
       </x:c>
-      <x:c r="B12" s="17" t="s">
+      <x:c r="B12" s="18" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="C12" s="17" t="s">
+      <x:c r="C12" s="18" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="D12" s="9">
+      <x:c r="D12" s="10">
         <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="5">
+      <x:c r="A13" s="6">
         <x:v>303</x:v>
       </x:c>
-      <x:c r="B13" s="17" t="s">
+      <x:c r="B13" s="18" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C13" s="17" t="s">
+      <x:c r="C13" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D13" s="9">
+      <x:c r="D13" s="10">
         <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="5">
+      <x:c r="A14" s="6">
         <x:v>778</x:v>
       </x:c>
-      <x:c r="B14" s="17" t="s">
+      <x:c r="B14" s="18" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="C14" s="17" t="s">
+      <x:c r="C14" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D14" s="9">
+      <x:c r="D14" s="10">
         <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="5">
+      <x:c r="A15" s="6">
         <x:v>516</x:v>
       </x:c>
-      <x:c r="B15" s="17" t="s">
+      <x:c r="B15" s="18" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C15" s="17" t="s">
+      <x:c r="C15" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D15" s="9">
+      <x:c r="D15" s="10">
         <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="5">
+      <x:c r="A16" s="6">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="B16" s="17" t="s">
+      <x:c r="B16" s="18" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C16" s="17" t="s">
+      <x:c r="C16" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D16" s="9">
+      <x:c r="D16" s="10">
         <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="5">
+      <x:c r="A17" s="6">
         <x:v>832</x:v>
       </x:c>
-      <x:c r="B17" s="17" t="s">
+      <x:c r="B17" s="18" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C17" s="17" t="s">
+      <x:c r="C17" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D17" s="9">
+      <x:c r="D17" s="10">
         <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="5">
+      <x:c r="A18" s="6">
         <x:v>855</x:v>
       </x:c>
-      <x:c r="B18" s="17" t="s">
+      <x:c r="B18" s="18" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C18" s="17" t="s">
+      <x:c r="C18" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D18" s="9">
+      <x:c r="D18" s="10">
         <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="5">
+      <x:c r="A19" s="6">
         <x:v>840</x:v>
       </x:c>
-      <x:c r="B19" s="17" t="s">
+      <x:c r="B19" s="18" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C19" s="17" t="s">
+      <x:c r="C19" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D19" s="9">
+      <x:c r="D19" s="10">
         <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="5">
+      <x:c r="A20" s="6">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B20" s="17" t="s">
+      <x:c r="B20" s="18" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C20" s="17" t="s">
+      <x:c r="C20" s="18" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D20" s="9">
+      <x:c r="D20" s="10">
         <x:v>130</x:v>
       </x:c>
     </x:row>
@@ -959,17 +959,17 @@
   </x:sheetPr>
   <x:dimension ref="A1:D20"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.433571" style="11" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="35.576429" style="18" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="55.290714" style="18" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="40.719286" style="18" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="12.433571" style="12" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="35.576429" style="19" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="55.290714" style="19" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="40.719286" style="19" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A1" s="21" t="s">
         <x:v>26</x:v>
       </x:c>
@@ -983,159 +983,159 @@
         <x:v>29</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="5">
+    <x:row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="6">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="B2" s="17" t="s">
+      <x:c r="B2" s="18" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C2" s="17" t="s">
+      <x:c r="C2" s="18" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D2" s="17" t="s">
+      <x:c r="D2" s="18" t="s">
         <x:v>32</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="5">
+    <x:row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="6">
         <x:v>820</x:v>
       </x:c>
-      <x:c r="B3" s="17" t="s">
+      <x:c r="B3" s="18" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C3" s="17" t="s">
+      <x:c r="C3" s="18" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D3" s="17" t="s">
+      <x:c r="D3" s="18" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="5">
+    <x:row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="6">
         <x:v>748</x:v>
       </x:c>
-      <x:c r="B4" s="17" t="s">
+      <x:c r="B4" s="18" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C4" s="17" t="s">
+      <x:c r="C4" s="18" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="D4" s="17" t="s">
+      <x:c r="D4" s="18" t="s">
         <x:v>38</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="5">
+    <x:row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="6">
         <x:v>633</x:v>
       </x:c>
-      <x:c r="B5" s="17" t="s">
+      <x:c r="B5" s="18" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="C5" s="17" t="s">
+      <x:c r="C5" s="18" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="D5" s="17" t="s">
+      <x:c r="D5" s="18" t="s">
         <x:v>41</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="8">
+    <x:row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="9">
         <x:v>666</x:v>
       </x:c>
-      <x:c r="B6" s="17" t="s">
+      <x:c r="B6" s="18" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="C6" s="17" t="s">
+      <x:c r="C6" s="18" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="D6" s="17" t="s">
+      <x:c r="D6" s="18" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="8"/>
-      <x:c r="B7" s="17"/>
-      <x:c r="C7" s="17"/>
-      <x:c r="D7" s="17"/>
-    </x:row>
-    <x:row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="8"/>
-      <x:c r="B8" s="17"/>
-      <x:c r="C8" s="17"/>
-      <x:c r="D8" s="17"/>
-    </x:row>
-    <x:row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="8"/>
-      <x:c r="B9" s="17"/>
-      <x:c r="C9" s="17"/>
-      <x:c r="D9" s="17"/>
-    </x:row>
-    <x:row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="8"/>
-      <x:c r="B10" s="17"/>
-      <x:c r="C10" s="17"/>
-      <x:c r="D10" s="17"/>
-    </x:row>
-    <x:row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="8"/>
-      <x:c r="B11" s="17"/>
-      <x:c r="C11" s="17"/>
-      <x:c r="D11" s="17"/>
-    </x:row>
-    <x:row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="8"/>
-      <x:c r="B12" s="17"/>
-      <x:c r="C12" s="17"/>
-      <x:c r="D12" s="17"/>
-    </x:row>
-    <x:row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="8"/>
-      <x:c r="B13" s="17"/>
-      <x:c r="C13" s="17"/>
-      <x:c r="D13" s="17"/>
-    </x:row>
-    <x:row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="8"/>
-      <x:c r="B14" s="17"/>
-      <x:c r="C14" s="17"/>
-      <x:c r="D14" s="17"/>
-    </x:row>
-    <x:row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="8"/>
-      <x:c r="B15" s="17"/>
-      <x:c r="C15" s="17"/>
-      <x:c r="D15" s="17"/>
-    </x:row>
-    <x:row r="16" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="8"/>
-      <x:c r="B16" s="17"/>
-      <x:c r="C16" s="17"/>
-      <x:c r="D16" s="17"/>
-    </x:row>
-    <x:row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="8"/>
-      <x:c r="B17" s="17"/>
-      <x:c r="C17" s="17"/>
-      <x:c r="D17" s="17"/>
-    </x:row>
-    <x:row r="18" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="8"/>
-      <x:c r="B18" s="17"/>
-      <x:c r="C18" s="17"/>
-      <x:c r="D18" s="17"/>
+    <x:row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="9"/>
+      <x:c r="B7" s="18"/>
+      <x:c r="C7" s="18"/>
+      <x:c r="D7" s="18"/>
+    </x:row>
+    <x:row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="9"/>
+      <x:c r="B8" s="18"/>
+      <x:c r="C8" s="18"/>
+      <x:c r="D8" s="18"/>
+    </x:row>
+    <x:row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="9"/>
+      <x:c r="B9" s="18"/>
+      <x:c r="C9" s="18"/>
+      <x:c r="D9" s="18"/>
+    </x:row>
+    <x:row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="9"/>
+      <x:c r="B10" s="18"/>
+      <x:c r="C10" s="18"/>
+      <x:c r="D10" s="18"/>
+    </x:row>
+    <x:row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="9"/>
+      <x:c r="B11" s="18"/>
+      <x:c r="C11" s="18"/>
+      <x:c r="D11" s="18"/>
+    </x:row>
+    <x:row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A12" s="9"/>
+      <x:c r="B12" s="18"/>
+      <x:c r="C12" s="18"/>
+      <x:c r="D12" s="18"/>
+    </x:row>
+    <x:row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A13" s="9"/>
+      <x:c r="B13" s="18"/>
+      <x:c r="C13" s="18"/>
+      <x:c r="D13" s="18"/>
+    </x:row>
+    <x:row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A14" s="9"/>
+      <x:c r="B14" s="18"/>
+      <x:c r="C14" s="18"/>
+      <x:c r="D14" s="18"/>
+    </x:row>
+    <x:row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A15" s="9"/>
+      <x:c r="B15" s="18"/>
+      <x:c r="C15" s="18"/>
+      <x:c r="D15" s="18"/>
+    </x:row>
+    <x:row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A16" s="9"/>
+      <x:c r="B16" s="18"/>
+      <x:c r="C16" s="18"/>
+      <x:c r="D16" s="18"/>
+    </x:row>
+    <x:row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A17" s="9"/>
+      <x:c r="B17" s="18"/>
+      <x:c r="C17" s="18"/>
+      <x:c r="D17" s="18"/>
+    </x:row>
+    <x:row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A18" s="9"/>
+      <x:c r="B18" s="18"/>
+      <x:c r="C18" s="18"/>
+      <x:c r="D18" s="18"/>
     </x:row>
     <x:row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="8"/>
-      <x:c r="B19" s="17"/>
-      <x:c r="C19" s="17"/>
-      <x:c r="D19" s="17"/>
+      <x:c r="A19" s="9"/>
+      <x:c r="B19" s="18"/>
+      <x:c r="C19" s="18"/>
+      <x:c r="D19" s="18"/>
     </x:row>
     <x:row r="20" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="8"/>
-      <x:c r="B20" s="17"/>
-      <x:c r="C20" s="17"/>
-      <x:c r="D20" s="17"/>
+      <x:c r="A20" s="9"/>
+      <x:c r="B20" s="18"/>
+      <x:c r="C20" s="18"/>
+      <x:c r="D20" s="18"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1153,16 +1153,16 @@
   </x:sheetPr>
   <x:dimension ref="A1:J20"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="11.719286" style="11" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="13.005" style="11" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="14.147857" style="11" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="14.576429" style="12" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="23.576429" style="13" bestFit="1" customWidth="1"/>
-    <x:col min="6" max="6" width="17.719286" style="14" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="11.719286" style="12" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="13.005" style="12" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="14.147857" style="12" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="14.576429" style="13" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="23.576429" style="14" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="17.719286" style="15" bestFit="1" customWidth="1"/>
     <x:col min="7" max="10" width="13.576429" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
@@ -1176,7 +1176,7 @@
       <x:c r="C1" s="21" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="D1" s="21" t="s">
+      <x:c r="D1" s="23" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="E1" s="24" t="s">
@@ -1187,264 +1187,264 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A2" s="5">
+      <x:c r="A2" s="6">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B2" s="5">
+      <x:c r="B2" s="6">
         <x:v>404</x:v>
       </x:c>
-      <x:c r="C2" s="5">
+      <x:c r="C2" s="6">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="D2" s="5">
+      <x:c r="D2" s="6">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="E2" s="6">
+      <x:c r="E2" s="7">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="F2" s="7">
+      <x:c r="F2" s="8">
         <x:v>45000</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A3" s="5">
+      <x:c r="A3" s="6">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="B3" s="5">
+      <x:c r="B3" s="6">
         <x:v>303</x:v>
       </x:c>
-      <x:c r="C3" s="5">
+      <x:c r="C3" s="6">
         <x:v>287</x:v>
       </x:c>
-      <x:c r="D3" s="5">
+      <x:c r="D3" s="6">
         <x:v>234</x:v>
       </x:c>
-      <x:c r="E3" s="6">
+      <x:c r="E3" s="7">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="F3" s="7">
+      <x:c r="F3" s="8">
         <x:v>45002</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="5">
+      <x:c r="A4" s="6">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="B4" s="5">
+      <x:c r="B4" s="6">
         <x:v>778</x:v>
       </x:c>
-      <x:c r="C4" s="5">
+      <x:c r="C4" s="6">
         <x:v>820</x:v>
       </x:c>
-      <x:c r="D4" s="5">
+      <x:c r="D4" s="6">
         <x:v>236</x:v>
       </x:c>
-      <x:c r="E4" s="6">
+      <x:c r="E4" s="7">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F4" s="7">
+      <x:c r="F4" s="8">
         <x:v>45060</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A5" s="5">
+      <x:c r="A5" s="6">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="B5" s="5">
+      <x:c r="B5" s="6">
         <x:v>181</x:v>
       </x:c>
-      <x:c r="C5" s="5">
+      <x:c r="C5" s="6">
         <x:v>633</x:v>
       </x:c>
-      <x:c r="D5" s="5">
+      <x:c r="D5" s="6">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="E5" s="6">
+      <x:c r="E5" s="7">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="F5" s="7">
+      <x:c r="F5" s="8">
         <x:v>45093</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A6" s="5">
+      <x:c r="A6" s="6">
         <x:v>106</x:v>
       </x:c>
-      <x:c r="B6" s="5">
+      <x:c r="B6" s="6">
         <x:v>855</x:v>
       </x:c>
-      <x:c r="C6" s="5">
+      <x:c r="C6" s="6">
         <x:v>748</x:v>
       </x:c>
-      <x:c r="D6" s="5">
+      <x:c r="D6" s="6">
         <x:v>235</x:v>
       </x:c>
-      <x:c r="E6" s="6">
+      <x:c r="E6" s="7">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="F6" s="7">
+      <x:c r="F6" s="8">
         <x:v>45036</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A7" s="5">
+      <x:c r="A7" s="6">
         <x:v>110</x:v>
       </x:c>
-      <x:c r="B7" s="5">
+      <x:c r="B7" s="6">
         <x:v>929</x:v>
       </x:c>
-      <x:c r="C7" s="5">
+      <x:c r="C7" s="6">
         <x:v>748</x:v>
       </x:c>
-      <x:c r="D7" s="5">
+      <x:c r="D7" s="6">
         <x:v>238</x:v>
       </x:c>
-      <x:c r="E7" s="6">
+      <x:c r="E7" s="7">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="F7" s="7">
+      <x:c r="F7" s="8">
         <x:v>45093</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A8" s="5">
+      <x:c r="A8" s="6">
         <x:v>111</x:v>
       </x:c>
-      <x:c r="B8" s="5">
+      <x:c r="B8" s="6">
         <x:v>832</x:v>
       </x:c>
-      <x:c r="C8" s="5">
+      <x:c r="C8" s="6">
         <x:v>633</x:v>
       </x:c>
-      <x:c r="D8" s="5">
+      <x:c r="D8" s="6">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="E8" s="6">
+      <x:c r="E8" s="7">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F8" s="7">
+      <x:c r="F8" s="8">
         <x:v>45099</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A9" s="5">
+      <x:c r="A9" s="6">
         <x:v>109</x:v>
       </x:c>
-      <x:c r="B9" s="5">
+      <x:c r="B9" s="6">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="C9" s="5">
+      <x:c r="C9" s="6">
         <x:v>633</x:v>
       </x:c>
-      <x:c r="D9" s="5">
+      <x:c r="D9" s="6">
         <x:v>237</x:v>
       </x:c>
-      <x:c r="E9" s="6">
+      <x:c r="E9" s="7">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="F9" s="7">
+      <x:c r="F9" s="8">
         <x:v>44949</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="8">
+      <x:c r="A10" s="9">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B10" s="8">
+      <x:c r="B10" s="9">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="C10" s="8">
+      <x:c r="C10" s="9">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D10" s="9">
+      <x:c r="D10" s="10">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E10" s="10">
+      <x:c r="E10" s="11">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F10" s="7">
+      <x:c r="F10" s="8">
         <x:v>45338</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="8"/>
-      <x:c r="B11" s="8"/>
-      <x:c r="C11" s="8"/>
-      <x:c r="D11" s="9"/>
-      <x:c r="E11" s="10"/>
-      <x:c r="F11" s="7"/>
+      <x:c r="A11" s="9"/>
+      <x:c r="B11" s="9"/>
+      <x:c r="C11" s="9"/>
+      <x:c r="D11" s="10"/>
+      <x:c r="E11" s="11"/>
+      <x:c r="F11" s="8"/>
     </x:row>
     <x:row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A12" s="8"/>
-      <x:c r="B12" s="8"/>
-      <x:c r="C12" s="8"/>
-      <x:c r="D12" s="9"/>
-      <x:c r="E12" s="10"/>
-      <x:c r="F12" s="7"/>
+      <x:c r="A12" s="9"/>
+      <x:c r="B12" s="9"/>
+      <x:c r="C12" s="9"/>
+      <x:c r="D12" s="10"/>
+      <x:c r="E12" s="11"/>
+      <x:c r="F12" s="8"/>
     </x:row>
     <x:row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A13" s="8"/>
-      <x:c r="B13" s="8"/>
-      <x:c r="C13" s="8"/>
-      <x:c r="D13" s="9"/>
-      <x:c r="E13" s="10"/>
-      <x:c r="F13" s="7"/>
+      <x:c r="A13" s="9"/>
+      <x:c r="B13" s="9"/>
+      <x:c r="C13" s="9"/>
+      <x:c r="D13" s="10"/>
+      <x:c r="E13" s="11"/>
+      <x:c r="F13" s="8"/>
     </x:row>
     <x:row r="14" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A14" s="8"/>
-      <x:c r="B14" s="8"/>
-      <x:c r="C14" s="8"/>
-      <x:c r="D14" s="9"/>
-      <x:c r="E14" s="10"/>
-      <x:c r="F14" s="7"/>
+      <x:c r="A14" s="9"/>
+      <x:c r="B14" s="9"/>
+      <x:c r="C14" s="9"/>
+      <x:c r="D14" s="10"/>
+      <x:c r="E14" s="11"/>
+      <x:c r="F14" s="8"/>
     </x:row>
     <x:row r="15" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A15" s="8"/>
-      <x:c r="B15" s="8"/>
-      <x:c r="C15" s="8"/>
-      <x:c r="D15" s="9"/>
-      <x:c r="E15" s="10"/>
-      <x:c r="F15" s="7"/>
+      <x:c r="A15" s="9"/>
+      <x:c r="B15" s="9"/>
+      <x:c r="C15" s="9"/>
+      <x:c r="D15" s="10"/>
+      <x:c r="E15" s="11"/>
+      <x:c r="F15" s="8"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A16" s="8"/>
-      <x:c r="B16" s="8"/>
-      <x:c r="C16" s="8"/>
-      <x:c r="D16" s="9"/>
-      <x:c r="E16" s="10"/>
-      <x:c r="F16" s="7"/>
+      <x:c r="A16" s="9"/>
+      <x:c r="B16" s="9"/>
+      <x:c r="C16" s="9"/>
+      <x:c r="D16" s="10"/>
+      <x:c r="E16" s="11"/>
+      <x:c r="F16" s="8"/>
     </x:row>
     <x:row r="17" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A17" s="8"/>
-      <x:c r="B17" s="8"/>
-      <x:c r="C17" s="8"/>
-      <x:c r="D17" s="9"/>
-      <x:c r="E17" s="10"/>
-      <x:c r="F17" s="7"/>
+      <x:c r="A17" s="9"/>
+      <x:c r="B17" s="9"/>
+      <x:c r="C17" s="9"/>
+      <x:c r="D17" s="10"/>
+      <x:c r="E17" s="11"/>
+      <x:c r="F17" s="8"/>
     </x:row>
     <x:row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A18" s="8"/>
-      <x:c r="B18" s="8"/>
-      <x:c r="C18" s="8"/>
-      <x:c r="D18" s="9"/>
-      <x:c r="E18" s="10"/>
-      <x:c r="F18" s="7"/>
+      <x:c r="A18" s="9"/>
+      <x:c r="B18" s="9"/>
+      <x:c r="C18" s="9"/>
+      <x:c r="D18" s="10"/>
+      <x:c r="E18" s="11"/>
+      <x:c r="F18" s="8"/>
     </x:row>
     <x:row r="19" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A19" s="8"/>
-      <x:c r="B19" s="8"/>
-      <x:c r="C19" s="8"/>
-      <x:c r="D19" s="9"/>
-      <x:c r="E19" s="10"/>
-      <x:c r="F19" s="7"/>
+      <x:c r="A19" s="9"/>
+      <x:c r="B19" s="9"/>
+      <x:c r="C19" s="9"/>
+      <x:c r="D19" s="10"/>
+      <x:c r="E19" s="11"/>
+      <x:c r="F19" s="8"/>
     </x:row>
     <x:row r="20" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A20" s="8"/>
-      <x:c r="B20" s="8"/>
-      <x:c r="C20" s="8"/>
-      <x:c r="D20" s="9"/>
-      <x:c r="E20" s="10"/>
-      <x:c r="F20" s="7"/>
+      <x:c r="A20" s="9"/>
+      <x:c r="B20" s="9"/>
+      <x:c r="C20" s="9"/>
+      <x:c r="D20" s="10"/>
+      <x:c r="E20" s="11"/>
+      <x:c r="F20" s="8"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
